--- a/branches/master/StructureDefinition-questionnaire-s372.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s372.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Profile : QuestionnaireS37</t>
+    <t>Profile : Questionnaire Value Set Unknown Status</t>
   </si>
   <si>
     <t>Status</t>

--- a/branches/master/StructureDefinition-questionnaire-s372.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s372.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -1016,17 +1016,13 @@
     <t>Questionnaire.item.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/s37-settings}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension : Questionnaire.item </t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -1185,12 +1181,6 @@
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.modifierExtension</t>
@@ -1798,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5747,11 +5737,11 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>79</v>
@@ -5769,12 +5759,14 @@
         <v>131</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5811,17 +5803,19 @@
         <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB35" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5839,7 +5833,7 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -5851,43 +5845,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5935,7 +5931,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5944,7 +5940,7 @@
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>137</v>
@@ -5953,7 +5949,7 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -5967,42 +5963,42 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6054,22 +6050,22 @@
         <v>329</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6083,7 +6079,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6091,7 +6087,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
@@ -6106,19 +6102,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6167,10 +6163,10 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -6185,7 +6181,7 @@
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6197,9 +6193,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6207,13 +6203,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6222,19 +6218,19 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6259,13 +6255,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6283,16 +6279,16 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6301,7 +6297,7 @@
         <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6315,18 +6311,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6338,19 +6334,19 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>299</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6375,13 +6371,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6399,16 +6395,16 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>98</v>
@@ -6417,7 +6413,7 @@
         <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -6431,11 +6427,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6457,17 +6453,15 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6515,7 +6509,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6533,7 +6527,7 @@
         <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>247</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -6545,9 +6539,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6561,7 +6555,7 @@
         <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6570,18 +6564,20 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6605,13 +6601,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6629,10 +6625,10 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>86</v>
@@ -6647,7 +6643,7 @@
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>247</v>
+        <v>364</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6661,7 +6657,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6669,34 +6665,34 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>106</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -6721,49 +6717,49 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6777,7 +6773,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6788,32 +6784,28 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6861,25 +6853,25 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -6897,14 +6889,14 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -6916,15 +6908,17 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -6973,19 +6967,19 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>80</v>
@@ -7009,7 +7003,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7022,24 +7016,26 @@
         <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7087,7 +7083,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7105,7 +7101,7 @@
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>319</v>
+        <v>129</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7119,43 +7115,41 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7203,25 +7197,25 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7235,7 +7229,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7258,17 +7252,15 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M48" t="s" s="2">
         <v>380</v>
       </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7293,13 +7285,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7317,7 +7309,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>86</v>
@@ -7335,7 +7327,7 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -7349,7 +7341,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7372,13 +7364,13 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7405,13 +7397,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7429,7 +7421,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>86</v>
@@ -7438,7 +7430,7 @@
         <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>98</v>
@@ -7447,7 +7439,7 @@
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7461,7 +7453,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7469,7 +7461,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
@@ -7484,15 +7476,17 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7517,40 +7511,40 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AF50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>98</v>
@@ -7559,7 +7553,7 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7573,7 +7567,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7596,22 +7590,24 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="Q51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7631,13 +7627,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7655,7 +7651,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7664,7 +7660,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -7673,7 +7669,7 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7685,9 +7681,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7695,13 +7691,13 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7713,74 +7709,76 @@
         <v>203</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Q52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH52" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Q52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>98</v>
@@ -7789,7 +7787,7 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -7803,7 +7801,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7829,68 +7827,66 @@
         <v>203</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="Q53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7898,7 +7894,7 @@
         <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
@@ -7907,7 +7903,7 @@
         <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -7921,7 +7917,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7944,20 +7940,18 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>203</v>
+        <v>415</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8005,7 +7999,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8014,7 +8008,7 @@
         <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>98</v>
@@ -8023,7 +8017,7 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8032,12 +8026,12 @@
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8060,16 +8054,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8119,7 +8113,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8128,7 +8122,7 @@
         <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
@@ -8137,7 +8131,7 @@
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8146,12 +8140,12 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8162,7 +8156,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8174,16 +8168,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>424</v>
+        <v>308</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8233,16 +8227,16 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>98</v>
@@ -8251,7 +8245,7 @@
         <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8265,7 +8259,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8276,7 +8270,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8288,17 +8282,15 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>430</v>
+        <v>316</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8347,25 +8339,25 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>429</v>
+        <v>318</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -8379,18 +8371,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8402,15 +8394,17 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8459,19 +8453,19 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>80</v>
@@ -8491,11 +8485,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8508,24 +8502,26 @@
         <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8573,7 +8569,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8591,7 +8587,7 @@
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>319</v>
+        <v>129</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8605,43 +8601,41 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>131</v>
+        <v>434</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8665,13 +8659,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -8689,25 +8683,25 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8721,7 +8715,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8729,7 +8723,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
@@ -8744,22 +8738,24 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>437</v>
+        <v>203</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="Q61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8779,13 +8775,13 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
@@ -8803,10 +8799,10 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -8821,7 +8817,7 @@
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -8835,7 +8831,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8846,7 +8842,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -8858,77 +8854,77 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="Q62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>98</v>
@@ -8937,7 +8933,7 @@
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -8951,7 +8947,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8962,7 +8958,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
@@ -8974,20 +8970,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>447</v>
+        <v>316</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9035,25 +9027,25 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>451</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9067,18 +9059,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9090,15 +9082,17 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9147,19 +9141,19 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>80</v>
@@ -9179,11 +9173,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9196,24 +9190,26 @@
         <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9261,7 +9257,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9279,7 +9275,7 @@
         <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>319</v>
+        <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
@@ -9293,43 +9289,41 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>131</v>
+        <v>453</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>327</v>
+        <v>454</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>328</v>
+        <v>455</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9353,13 +9347,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -9377,25 +9371,25 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>329</v>
+        <v>452</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -9409,7 +9403,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9417,10 +9411,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9432,18 +9426,20 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9467,13 +9463,13 @@
         <v>80</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>80</v>
@@ -9491,16 +9487,16 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>98</v>
@@ -9509,7 +9505,7 @@
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>365</v>
+        <v>463</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -9518,127 +9514,11 @@
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9648,7 +9528,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
